--- a/analysis/mails_01/P04_7/table_to_fill.xlsx
+++ b/analysis/mails_01/P04_7/table_to_fill.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="68">
   <si>
     <t xml:space="preserve">fieldsample_barcode</t>
   </si>
@@ -63,7 +63,13 @@
     <t xml:space="preserve">soil</t>
   </si>
   <si>
-    <t xml:space="preserve">2021-11-07</t>
+    <t xml:space="preserve">25/01/2022 00:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">56.9922</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.7235</t>
   </si>
   <si>
     <t xml:space="preserve">agriculture</t>
@@ -84,7 +90,10 @@
     <t xml:space="preserve">MFD10079</t>
   </si>
   <si>
-    <t xml:space="preserve">2021-10-31</t>
+    <t xml:space="preserve">56.9975</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.6666</t>
   </si>
   <si>
     <t xml:space="preserve">260</t>
@@ -93,7 +102,13 @@
     <t xml:space="preserve">MFD10080</t>
   </si>
   <si>
-    <t xml:space="preserve">2021-11-02</t>
+    <t xml:space="preserve">02/11/2021 00:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">56.9898</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.7426</t>
   </si>
   <si>
     <t xml:space="preserve">22</t>
@@ -102,7 +117,13 @@
     <t xml:space="preserve">MFD10081</t>
   </si>
   <si>
-    <t xml:space="preserve">2021-11-01</t>
+    <t xml:space="preserve">01/11/2021 00:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">56.965</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.6356</t>
   </si>
   <si>
     <t xml:space="preserve">122E</t>
@@ -111,6 +132,12 @@
     <t xml:space="preserve">MFD10082</t>
   </si>
   <si>
+    <t xml:space="preserve">56.7078</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.6306</t>
+  </si>
+  <si>
     <t xml:space="preserve">252</t>
   </si>
   <si>
@@ -120,13 +147,25 @@
     <t xml:space="preserve">MFD10083</t>
   </si>
   <si>
+    <t xml:space="preserve">56.1687</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.4091</t>
+  </si>
+  <si>
     <t xml:space="preserve">silkeborg</t>
   </si>
   <si>
     <t xml:space="preserve">MFD10084</t>
   </si>
   <si>
-    <t xml:space="preserve">2021-11-06</t>
+    <t xml:space="preserve">06/11/2021 00:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">57.5044</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.9864</t>
   </si>
   <si>
     <t xml:space="preserve">hjørring</t>
@@ -587,256 +626,256 @@
       <c r="C2" t="s">
         <v>16</v>
       </c>
-      <c r="D2" t="n">
-        <v>56.9922</v>
-      </c>
-      <c r="E2" t="n">
-        <v>9.7235</v>
+      <c r="D2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" t="s">
+        <v>18</v>
       </c>
       <c r="F2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G2" s="2"/>
       <c r="H2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="J2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="K2" s="3"/>
       <c r="L2" s="3"/>
       <c r="M2" s="3"/>
       <c r="N2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B3" t="s">
         <v>15</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D3" t="n">
-        <v>56.9975</v>
-      </c>
-      <c r="E3" t="n">
-        <v>9.6666</v>
+        <v>16</v>
+      </c>
+      <c r="D3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E3" t="s">
+        <v>26</v>
       </c>
       <c r="F3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G3" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="H3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I3" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="J3" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="K3" s="3"/>
       <c r="L3" s="3"/>
       <c r="M3" s="3"/>
       <c r="N3" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B4" t="s">
         <v>15</v>
       </c>
       <c r="C4" t="s">
-        <v>26</v>
-      </c>
-      <c r="D4" t="n">
-        <v>56.9898</v>
-      </c>
-      <c r="E4" t="n">
-        <v>9.7426</v>
+        <v>29</v>
+      </c>
+      <c r="D4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E4" t="s">
+        <v>31</v>
       </c>
       <c r="F4" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G4" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="H4" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I4" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="J4" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="K4" s="3"/>
       <c r="L4" s="3"/>
       <c r="M4" s="3"/>
       <c r="N4" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="B5" t="s">
         <v>15</v>
       </c>
       <c r="C5" t="s">
-        <v>29</v>
-      </c>
-      <c r="D5" t="n">
-        <v>56.965</v>
-      </c>
-      <c r="E5" t="n">
-        <v>9.6356</v>
+        <v>34</v>
+      </c>
+      <c r="D5" t="s">
+        <v>35</v>
+      </c>
+      <c r="E5" t="s">
+        <v>36</v>
       </c>
       <c r="F5" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G5" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="H5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I5" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="J5" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="K5" s="3"/>
       <c r="L5" s="3"/>
       <c r="M5" s="3"/>
       <c r="N5" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="B6" t="s">
         <v>15</v>
       </c>
       <c r="C6" t="s">
-        <v>26</v>
-      </c>
-      <c r="D6" t="n">
-        <v>56.7078</v>
-      </c>
-      <c r="E6" t="n">
-        <v>9.6306</v>
+        <v>29</v>
+      </c>
+      <c r="D6" t="s">
+        <v>39</v>
+      </c>
+      <c r="E6" t="s">
+        <v>40</v>
       </c>
       <c r="F6" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G6" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="H6" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="I6" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="J6" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="K6" s="3"/>
       <c r="L6" s="3"/>
       <c r="M6" s="3"/>
       <c r="N6" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="B7" t="s">
         <v>15</v>
       </c>
       <c r="C7" t="s">
-        <v>26</v>
-      </c>
-      <c r="D7" t="n">
-        <v>56.1687</v>
-      </c>
-      <c r="E7" t="n">
-        <v>9.4091</v>
+        <v>29</v>
+      </c>
+      <c r="D7" t="s">
+        <v>44</v>
+      </c>
+      <c r="E7" t="s">
+        <v>45</v>
       </c>
       <c r="F7" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G7" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="H7" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="I7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="J7" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="K7" s="3"/>
       <c r="L7" s="3"/>
       <c r="M7" s="3"/>
       <c r="N7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="B8" t="s">
         <v>15</v>
       </c>
       <c r="C8" t="s">
-        <v>37</v>
-      </c>
-      <c r="D8" t="n">
-        <v>57.5044</v>
-      </c>
-      <c r="E8" t="n">
-        <v>9.9864</v>
+        <v>48</v>
+      </c>
+      <c r="D8" t="s">
+        <v>49</v>
+      </c>
+      <c r="E8" t="s">
+        <v>50</v>
       </c>
       <c r="F8" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G8" s="2"/>
       <c r="H8" t="s">
-        <v>38</v>
+        <v>51</v>
       </c>
       <c r="I8" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="J8" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="K8" s="3"/>
       <c r="L8" s="3"/>
       <c r="M8" s="3"/>
       <c r="N8" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -855,10 +894,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>39</v>
+        <v>52</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>40</v>
+        <v>53</v>
       </c>
     </row>
     <row r="2">
@@ -866,7 +905,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>41</v>
+        <v>54</v>
       </c>
     </row>
     <row r="3">
@@ -874,7 +913,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>42</v>
+        <v>55</v>
       </c>
     </row>
     <row r="4">
@@ -882,7 +921,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>43</v>
+        <v>56</v>
       </c>
     </row>
     <row r="5">
@@ -890,7 +929,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>44</v>
+        <v>57</v>
       </c>
     </row>
     <row r="6">
@@ -898,7 +937,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
     </row>
     <row r="7">
@@ -906,7 +945,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>46</v>
+        <v>59</v>
       </c>
     </row>
     <row r="8">
@@ -914,7 +953,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>47</v>
+        <v>60</v>
       </c>
     </row>
     <row r="9">
@@ -922,7 +961,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>48</v>
+        <v>61</v>
       </c>
     </row>
     <row r="10">
@@ -930,7 +969,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>49</v>
+        <v>62</v>
       </c>
     </row>
     <row r="11">
@@ -938,7 +977,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>50</v>
+        <v>63</v>
       </c>
     </row>
     <row r="12">
@@ -946,7 +985,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>51</v>
+        <v>64</v>
       </c>
     </row>
     <row r="13">
@@ -954,7 +993,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>52</v>
+        <v>65</v>
       </c>
     </row>
     <row r="14">
@@ -962,7 +1001,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>53</v>
+        <v>66</v>
       </c>
     </row>
     <row r="15">
@@ -970,7 +1009,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>54</v>
+        <v>67</v>
       </c>
     </row>
   </sheetData>

--- a/analysis/mails_01/P04_7/table_to_fill.xlsx
+++ b/analysis/mails_01/P04_7/table_to_fill.xlsx
@@ -63,7 +63,7 @@
     <t xml:space="preserve">soil</t>
   </si>
   <si>
-    <t xml:space="preserve">25/01/2022 00:00</t>
+    <t xml:space="preserve">2022-01-25</t>
   </si>
   <si>
     <t xml:space="preserve">56.9922</t>
@@ -102,7 +102,7 @@
     <t xml:space="preserve">MFD10080</t>
   </si>
   <si>
-    <t xml:space="preserve">02/11/2021 00:00</t>
+    <t xml:space="preserve">2021-11-02</t>
   </si>
   <si>
     <t xml:space="preserve">56.9898</t>
@@ -117,7 +117,7 @@
     <t xml:space="preserve">MFD10081</t>
   </si>
   <si>
-    <t xml:space="preserve">01/11/2021 00:00</t>
+    <t xml:space="preserve">2021-11-01</t>
   </si>
   <si>
     <t xml:space="preserve">56.965</t>
@@ -159,7 +159,7 @@
     <t xml:space="preserve">MFD10084</t>
   </si>
   <si>
-    <t xml:space="preserve">06/11/2021 00:00</t>
+    <t xml:space="preserve">2021-11-06</t>
   </si>
   <si>
     <t xml:space="preserve">57.5044</t>
